--- a/EmployeeMonthlyVertec-sample.xlsx
+++ b/EmployeeMonthlyVertec-sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501735C8-D3FF-4B66-A6D5-81FF61A8D547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6AE144-F734-43B6-AAC8-7B7E407C2207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2055" windowWidth="21600" windowHeight="11385" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imputations" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Code</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>reserve</t>
+  </si>
+  <si>
+    <t>543123</t>
+  </si>
+  <si>
+    <t>19513</t>
+  </si>
+  <si>
+    <t>18020</t>
   </si>
 </sst>
 </file>
@@ -274,12 +283,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -987,9 +999,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1001,6 +1013,7 @@
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -1034,7 +1047,7 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1084,8 +1097,8 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="J2">
-        <v>543123</v>
+      <c r="J2" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>59</v>
@@ -1138,8 +1151,8 @@
       <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="J3">
-        <v>543123</v>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>59</v>
@@ -1192,8 +1205,8 @@
       <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="J4">
-        <v>543123</v>
+      <c r="J4" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
@@ -1246,8 +1259,8 @@
       <c r="I5" t="s">
         <v>58</v>
       </c>
-      <c r="J5">
-        <v>19513</v>
+      <c r="J5" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="K5" t="s">
         <v>59</v>
@@ -1300,8 +1313,8 @@
       <c r="I6" t="s">
         <v>58</v>
       </c>
-      <c r="J6">
-        <v>18020</v>
+      <c r="J6" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="K6" t="s">
         <v>59</v>
@@ -1354,8 +1367,8 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7">
-        <v>19513</v>
+      <c r="J7" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="K7" t="s">
         <v>59</v>
